--- a/src/main/webapp/template/재고현황양식.xlsx
+++ b/src/main/webapp/template/재고현황양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180320ED-AA6E-40D9-92D0-4D5771F3E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA40D398-7611-48FB-BDC3-53811F617B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -22,34 +22,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>0010001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010002</t>
+  </si>
+  <si>
+    <t>0010003</t>
+  </si>
+  <si>
+    <t>0010004</t>
+  </si>
+  <si>
+    <t>0010005</t>
+  </si>
+  <si>
     <t>물품코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>재고수량</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010002</t>
-  </si>
-  <si>
-    <t>0010003</t>
-  </si>
-  <si>
-    <t>0010004</t>
-  </si>
-  <si>
-    <t>0010005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +78,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -124,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +141,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,7 +451,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -451,15 +462,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -467,7 +478,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -475,7 +486,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
@@ -483,7 +494,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -491,7 +502,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
